--- a/streams/docs/induction-state-2012/inductionvariables.xlsx
+++ b/streams/docs/induction-state-2012/inductionvariables.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="3520" yWindow="0" windowWidth="25280" windowHeight="17480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>CoarseSerializedBeamFormer</t>
   </si>
@@ -64,13 +69,29 @@
   </si>
   <si>
     <t>MPEGencoder Preprocessing</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Speedup over Sequential State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,18 +117,252 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup over Sequential State</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.03 Speedup over Sequential State</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FIRBank</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429177272"/>
+        <c:axId val="429170600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429177272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="429170600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429170600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="429177272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,14 +649,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -423,7 +682,7 @@
       <c r="C3">
         <v>848668</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <f>C2/C3</f>
         <v>3.1673163121503345E-3</v>
       </c>
@@ -448,7 +707,7 @@
       <c r="C7">
         <v>390138</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <f>C6/C7</f>
         <v>2.9989388370268982E-4</v>
       </c>
@@ -473,7 +732,7 @@
       <c r="C11">
         <v>1925111</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>C10/C11</f>
         <v>3.9366041750319852E-2</v>
       </c>
@@ -532,7 +791,7 @@
       <c r="C20">
         <v>15677783</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <f>SUM(C14:C19)/C20</f>
         <v>3.0089968715602201E-2</v>
       </c>
@@ -562,7 +821,7 @@
       <c r="C25">
         <v>1596217</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <f>SUM(C23:C24)/C25</f>
         <v>0.98219227085039185</v>
       </c>
@@ -587,36 +846,170 @@
       <c r="C29">
         <v>42853105</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <f>C28/C29</f>
         <v>2.6883116170928572E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>1+$A$1*(A3-1)</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B12" si="0">1+$A$1*(A4-1)</f>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
+      <c r="C5">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="C6">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.93</v>
+      </c>
+      <c r="C7">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8899999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.8100000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>8.6499999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>31.689999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>